--- a/files/SF_2023_ground_data.xlsx
+++ b/files/SF_2023_ground_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fengyin/Desktop/EO Africa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plewis/Documents/GitHub/EO-AFRICA/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD10F8C-E591-2B45-9129-49B6C568F55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6184692E-A03F-1548-BF5D-7B4D18ABF9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="1000" windowWidth="30240" windowHeight="17580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chl" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="44">
   <si>
     <t>Main plot No</t>
   </si>
@@ -161,6 +161,15 @@
   <si>
     <t>P1S2</t>
   </si>
+  <si>
+    <t>2023 MEAN CAB UG/CM2</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2023 MEAN LAI</t>
+  </si>
 </sst>
 </file>
 
@@ -243,6 +252,1885 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>2023 MEAN CAB UG/CM2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Chl!$M$8:$M$16</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15.9.2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.9.2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.9.2023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.10.2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.10.2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.10.2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.10.2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.11.2023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.11.2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Chl!$N$8:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>30.682516995615735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.177707175118449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.403415624846154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.403415624846154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.010619040424913</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.980660168102609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.775975958689443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.981153548204098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.23527328269137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFED-3C44-8B6A-CD57558B7EA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2005322623"/>
+        <c:axId val="2005354463"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2005322623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2005354463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2005354463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2005322623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2023 MEAN LAI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>LAI!$M$5:$M$13</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15.9.2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.9.2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.9.2023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.10.2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.10.2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.10.2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.10.2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.11.2023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.11.2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LAI!$N$5:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.34600266752218739</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51801051995554936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95442342915943257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4525927646679271</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8630006182574352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2229390318669813</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4326572431400892</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9576258682098191</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2108568100701975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FE6-B04E-A799-EEFBBA7E14C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="813538352"/>
+        <c:axId val="920824416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="813538352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="920824416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="920824416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="813538352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C17366-67E1-F5FC-CCEB-D37AD4B4BFA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984D891C-DCF9-2B17-DA8E-2CA17A1C6004}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,10 +2450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -573,9 +2461,11 @@
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +2500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -645,7 +2535,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>40</v>
       </c>
@@ -677,7 +2567,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -709,7 +2599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -741,7 +2631,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -773,7 +2663,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -783,8 +2673,14 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -818,8 +2714,14 @@
       <c r="K8" s="2">
         <v>29.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>30.682516995615735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -850,8 +2752,14 @@
       <c r="K9" s="2">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>34.177707175118449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>28</v>
       </c>
@@ -882,8 +2790,14 @@
       <c r="K10" s="2">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <v>37.403415624846154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -914,8 +2828,14 @@
       <c r="K11" s="2">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>37.403415624846154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -946,8 +2866,14 @@
       <c r="K12" s="2">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>51.010619040424913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -957,8 +2883,14 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>52.980660168102609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -992,8 +2924,14 @@
       <c r="K14" s="2">
         <v>29.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>46.775975958689443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -1024,8 +2962,14 @@
       <c r="K15" s="2">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <v>38.981153548204098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1055,6 +2999,12 @@
       </c>
       <c r="K16" s="2">
         <v>30.9</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16">
+        <v>29.23527328269137</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1469,17 +3419,85 @@
         <v>29.9</v>
       </c>
     </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <f>GEOMEAN(C2:C30)</f>
+        <v>30.682516995615735</v>
+      </c>
+      <c r="D32">
+        <f>GEOMEAN(D2:D30)</f>
+        <v>34.177707175118449</v>
+      </c>
+      <c r="E32">
+        <f>GEOMEAN(E2:E30)</f>
+        <v>37.403415624846154</v>
+      </c>
+      <c r="F32">
+        <f>GEOMEAN(F2:F30)</f>
+        <v>44.389378183922368</v>
+      </c>
+      <c r="G32">
+        <f>GEOMEAN(G2:G30)</f>
+        <v>51.010619040424913</v>
+      </c>
+      <c r="H32">
+        <f>GEOMEAN(H2:H30)</f>
+        <v>52.980660168102609</v>
+      </c>
+      <c r="I32">
+        <f>GEOMEAN(I2:I30)</f>
+        <v>46.775975958689443</v>
+      </c>
+      <c r="J32">
+        <f>GEOMEAN(J2:J30)</f>
+        <v>38.981153548204098</v>
+      </c>
+      <c r="K32">
+        <f>GEOMEAN(K2:K30)</f>
+        <v>29.23527328269137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E96BF-E6F1-41BB-8A2E-383C4C4CCF7E}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1488,7 +3506,7 @@
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +3541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +3576,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>40</v>
       </c>
@@ -1590,7 +3608,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -1621,8 +3639,11 @@
       <c r="K4">
         <v>1.62</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -1653,8 +3674,14 @@
       <c r="K5">
         <v>1.64</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>0.34600266752218739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -1685,8 +3712,22 @@
       <c r="K6">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>0.51801051995554936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7">
+        <v>0.95442342915943257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1720,8 +3761,14 @@
       <c r="K8">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>1.4525927646679271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -1752,8 +3799,14 @@
       <c r="K9">
         <v>1.33</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>1.8630006182574352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>28</v>
       </c>
@@ -1784,8 +3837,14 @@
       <c r="K10">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10">
+        <v>2.2229390318669813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -1816,8 +3875,14 @@
       <c r="K11">
         <v>1.56</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11">
+        <v>2.4326572431400892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -1848,8 +3913,22 @@
       <c r="K12">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12">
+        <v>1.9576258682098191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13">
+        <v>1.2108568100701975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1884,7 +3963,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -1916,7 +3995,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -2343,7 +4422,104 @@
         <v>1.21</v>
       </c>
     </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f>GEOMEAN(C2:C30)</f>
+        <v>0.34600266752218739</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:K33" si="0">GEOMEAN(D2:D30)</f>
+        <v>0.51801051995554936</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.95442342915943257</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1.4525927646679271</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>1.8630006182574352</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>2.2229390318669813</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>2.4326572431400892</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>1.9576258682098191</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>1.2108568100701975</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>0.34600266752218739</v>
+      </c>
+      <c r="D35">
+        <v>0.51801051995554936</v>
+      </c>
+      <c r="E35">
+        <v>0.95442342915943257</v>
+      </c>
+      <c r="F35">
+        <v>1.4525927646679271</v>
+      </c>
+      <c r="G35">
+        <v>1.8630006182574352</v>
+      </c>
+      <c r="H35">
+        <v>2.2229390318669813</v>
+      </c>
+      <c r="I35">
+        <v>2.4326572431400892</v>
+      </c>
+      <c r="J35">
+        <v>1.9576258682098191</v>
+      </c>
+      <c r="K35">
+        <v>1.2108568100701975</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>